--- a/SourceCode/2023/Oct2023/Projects/vajrang/CodeTest/CodeTest/Data/Input/Input.xlsx
+++ b/SourceCode/2023/Oct2023/Projects/vajrang/CodeTest/CodeTest/Data/Input/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\refr\RefSolutions\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA-Developer-in-30-Days\SourceCode\2023\Oct2023\Projects\vajrang\CodeTest\CodeTest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22B3081-7135-4687-9BFA-A972851F9DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2C1F4-CF27-408B-A82B-BC8BC8C26C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="2892" windowWidth="9708" windowHeight="8964" firstSheet="1" xr2:uid="{A1A9E35E-3F14-4D35-AB6D-CA976FE8B9FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{A1A9E35E-3F14-4D35-AB6D-CA976FE8B9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,17 +474,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF8B151-EF52-4D65-8FE7-4A5ED28A0A33}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -508,7 +508,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -518,13 +518,13 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -548,55 +548,55 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>17</v>
       </c>
@@ -607,12 +607,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="724559a3-5ba9-4661-a540-750ab5364816">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8484e914-0ef4-4b6a-9d9c-40efcd2381be" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -853,24 +855,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="724559a3-5ba9-4661-a540-750ab5364816">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8484e914-0ef4-4b6a-9d9c-40efcd2381be" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0C27A11-D069-40B8-854B-261C7C867DD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9013ECC-718B-4547-9631-07D204F05563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="724559a3-5ba9-4661-a540-750ab5364816"/>
+    <ds:schemaRef ds:uri="8484e914-0ef4-4b6a-9d9c-40efcd2381be"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B19B6C1-869C-4368-9652-3313D5B97022}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B19B6C1-869C-4368-9652-3313D5B97022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="724559a3-5ba9-4661-a540-750ab5364816"/>
+    <ds:schemaRef ds:uri="8484e914-0ef4-4b6a-9d9c-40efcd2381be"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9013ECC-718B-4547-9631-07D204F05563}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0C27A11-D069-40B8-854B-261C7C867DD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>